--- a/people.xlsx
+++ b/people.xlsx
@@ -433,10 +433,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.25"/>
@@ -444,6 +444,7 @@
     <col width="11.46484375" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="16.46484375" bestFit="1" customWidth="1" min="3" max="3"/>
     <col width="16.796875" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="12.06640625" customWidth="1" min="5" max="5"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -464,7 +465,12 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Employment</t>
+          <t>Số lượng</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Tổng tiền</t>
         </is>
       </c>
     </row>
@@ -503,6 +509,326 @@
         </is>
       </c>
       <c r="D3" t="inlineStr">
+        <is>
+          <t>Unemployed</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>321</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>3123</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Thức ăn chăn nuôi</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Unemployed</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>r</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Thức ăn chăn nuôi</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Unemployed</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>213213</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>3213</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Thức ăn chăn nuôi</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Unemployed</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>21312</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>23123</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Thức ăn chăn nuôi</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Unemployed</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>quả cam</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>45000</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Hoa quả</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Unemployed</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>quít</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>23000</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Thức ăn chăn nuôi</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Unemployed</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Nhập tên sản phẩm</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Nhập giá tiền</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Thức ăn chăn nuôi</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Unemployed</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Nhập tên sản phẩm</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>r</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Thức ăn chăn nuôi</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Unemployed</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Nhập tên sản phẩm</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Thức ăn chăn nuôi</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Unemployed</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Thức ăn chăn nuôi</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Unemployed</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Thức ăn chăn nuôi</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Unemployed</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>213</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Thức ăn chăn nuôi</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Unemployed</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Thức ăn chăn nuôi</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Unemployed</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>213</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Thức ăn chăn nuôi</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Unemployed</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Thức ăn chăn nuôi</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
         <is>
           <t>Unemployed</t>
         </is>

--- a/people.xlsx
+++ b/people.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-105" yWindow="-105" windowWidth="23258" windowHeight="12458" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="16185" windowHeight="6203" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -433,10 +433,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.25"/>
@@ -444,7 +444,6 @@
     <col width="11.46484375" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="16.46484375" bestFit="1" customWidth="1" min="3" max="3"/>
     <col width="16.796875" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="12.06640625" customWidth="1" min="5" max="5"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -477,11 +476,13 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Cám gà</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>15000</v>
+          <t>cà phê</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>40000</t>
+        </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -490,347 +491,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Unemployed</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Táo mèo</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>20000</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Hoa quả</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Unemployed</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>321</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>3123</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Thức ăn chăn nuôi</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Unemployed</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>r</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>21</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Thức ăn chăn nuôi</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Unemployed</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>213213</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>3213</v>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Thức ăn chăn nuôi</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Unemployed</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>21312</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>23123</v>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Thức ăn chăn nuôi</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Unemployed</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>quả cam</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>45000</v>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Hoa quả</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>Unemployed</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>quít</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>23000</v>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Thức ăn chăn nuôi</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>Unemployed</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Nhập tên sản phẩm</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Nhập giá tiền</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Thức ăn chăn nuôi</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>Unemployed</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Nhập tên sản phẩm</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>r</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Thức ăn chăn nuôi</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>Unemployed</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Nhập tên sản phẩm</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>Thức ăn chăn nuôi</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>Unemployed</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>q</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>Thức ăn chăn nuôi</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>Unemployed</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>Thức ăn chăn nuôi</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>Unemployed</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>213</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>Thức ăn chăn nuôi</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>Unemployed</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>123</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>Thức ăn chăn nuôi</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>Unemployed</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>213</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>Thức ăn chăn nuôi</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>Unemployed</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>Thức ăn chăn nuôi</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>Unemployed</t>
+          <t>Employed</t>
         </is>
       </c>
     </row>
